--- a/expedientes.xlsx
+++ b/expedientes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView minimized="1" xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="RptTramitesNacionalización" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="252">
   <si>
     <t/>
   </si>
@@ -807,11 +807,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2082,8 +2083,8 @@
       <c r="B38" t="s">
         <v>130</v>
       </c>
-      <c r="C38" t="s">
-        <v>131</v>
+      <c r="C38" s="2">
+        <v>45966.715069444443</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
